--- a/p_values.xlsx
+++ b/p_values.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AEP-anaylsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDB8194-87E4-43A3-BFDA-09DDCB4E040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A1D50-D934-485D-8681-860304ABFD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$91</definedName>
@@ -23,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="18">
-  <si>
-    <t>test_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
   <si>
     <t>duration_ms</t>
-  </si>
-  <si>
-    <t>freqs</t>
   </si>
   <si>
     <t>pvalue</t>
@@ -40,16 +36,16 @@
     <t>significance</t>
   </si>
   <si>
-    <t>stats</t>
-  </si>
-  <si>
     <t>Mann-Whitney U test</t>
   </si>
   <si>
-    <t>125Hz</t>
+    <t>significant</t>
   </si>
   <si>
     <t xml:space="preserve"> Wilcoxon signed-rank test</t>
+  </si>
+  <si>
+    <t>Significant</t>
   </si>
   <si>
     <t xml:space="preserve"> Kruskal-Wallis test</t>
@@ -67,23 +63,59 @@
     <t>Kolmogorov-Smirnov test</t>
   </si>
   <si>
-    <t>250Hz</t>
+    <t>Testname</t>
   </si>
   <si>
-    <t>500Hz</t>
+    <t>frequnecey</t>
   </si>
   <si>
-    <t>750Hz</t>
+    <t>Significance</t>
   </si>
   <si>
-    <t>1000Hz</t>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t>Non Significant</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>3ms</t>
+  </si>
+  <si>
+    <t>18ms</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>Wilcoxon Test SoNo vs SpiNo</t>
+  </si>
+  <si>
+    <t>Fscore</t>
+  </si>
+  <si>
+    <t>P_value</t>
+  </si>
+  <si>
+    <t>signifiacant</t>
+  </si>
+  <si>
+    <t>Non significat</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Friedman Test: 125hz vs 250Hz vs 500Hz vs 750 Hz vs 1000hz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +128,59 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -128,14 +203,304 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,86 +807,89 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>125</v>
       </c>
       <c r="D2">
         <v>1.0090592462977841E-2</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
       <c r="F2">
         <v>832</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9.9803823777639376E-4</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>105</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.8733526831492782E-2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4">
+        <v>125</v>
       </c>
       <c r="D4">
         <v>9.920644664278189E-3</v>
@@ -535,13 +903,13 @@
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5">
+        <v>125</v>
       </c>
       <c r="D5">
         <v>1.386951296825834E-2</v>
@@ -555,13 +923,13 @@
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C6">
+        <v>125</v>
       </c>
       <c r="D6">
         <v>1.878225477412343E-3</v>
@@ -570,18 +938,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="C7">
+        <v>125</v>
       </c>
       <c r="D7">
         <v>3.1939843854419309E-2</v>
@@ -595,53 +963,53 @@
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
+      <c r="C8">
+        <v>125</v>
       </c>
       <c r="D8">
         <v>1.0918310920803979E-3</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>4</v>
       </c>
       <c r="F8">
         <v>891</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2.6923617795732552E-6</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>23</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.4583711111972702E-3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
+      <c r="C10">
+        <v>125</v>
       </c>
       <c r="D10">
         <v>1.0694019065042241E-3</v>
@@ -655,13 +1023,13 @@
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
+      <c r="C11">
+        <v>125</v>
       </c>
       <c r="D11">
         <v>4.8249273373077568E-4</v>
@@ -675,13 +1043,13 @@
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
+      <c r="C12">
+        <v>125</v>
       </c>
       <c r="D12">
         <v>2.236152067780495E-5</v>
@@ -690,18 +1058,18 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
+      <c r="C13">
+        <v>125</v>
       </c>
       <c r="D13">
         <v>2.8859965193802051E-3</v>
@@ -715,13 +1083,13 @@
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
+      <c r="C14">
+        <v>125</v>
       </c>
       <c r="D14">
         <v>0.40094964337188921</v>
@@ -734,34 +1102,34 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>3.8733526831492782E-2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>189</v>
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>500</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.2494688400765901E-3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>120.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
+      <c r="C16">
+        <v>125</v>
       </c>
       <c r="D16">
         <v>0.3976643081765342</v>
@@ -775,13 +1143,13 @@
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
+      <c r="C17">
+        <v>125</v>
       </c>
       <c r="D17">
         <v>0.30592054569866239</v>
@@ -795,13 +1163,13 @@
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
+      <c r="C18">
+        <v>125</v>
       </c>
       <c r="D18">
         <v>8.9531078934669522E-2</v>
@@ -810,18 +1178,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
+      <c r="C19">
+        <v>125</v>
       </c>
       <c r="D19">
         <v>0.32348121709712058</v>
@@ -835,53 +1203,53 @@
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
+      <c r="C20">
+        <v>250</v>
       </c>
       <c r="D20">
         <v>3.6525919047304109E-2</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>4</v>
       </c>
       <c r="F20">
         <v>791</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>1.5315516704691781E-5</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>38.5</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>750</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.2273330406037951E-5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
+      <c r="C22">
+        <v>250</v>
       </c>
       <c r="D22">
         <v>3.6002641831940199E-2</v>
@@ -895,13 +1263,13 @@
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
+      <c r="C23">
+        <v>250</v>
       </c>
       <c r="D23">
         <v>3.3954399200878491E-2</v>
@@ -915,13 +1283,13 @@
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
+      <c r="C24">
+        <v>250</v>
       </c>
       <c r="D24">
         <v>1.878225477412343E-3</v>
@@ -930,18 +1298,18 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
+      <c r="C25">
+        <v>250</v>
       </c>
       <c r="D25">
         <v>6.2548090229219186E-2</v>
@@ -955,13 +1323,13 @@
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
+      <c r="C26">
+        <v>250</v>
       </c>
       <c r="D26">
         <v>8.4198806062203632E-2</v>
@@ -973,35 +1341,35 @@
         <v>760</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>3.9222527127924723E-5</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>57</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.1864916427924507E-2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
+      <c r="C28">
+        <v>250</v>
       </c>
       <c r="D28">
         <v>8.3148972423534417E-2</v>
@@ -1015,13 +1383,13 @@
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
+      <c r="C29">
+        <v>250</v>
       </c>
       <c r="D29">
         <v>7.8636369641387607E-2</v>
@@ -1035,13 +1403,13 @@
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>48</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
+      <c r="C30">
+        <v>250</v>
       </c>
       <c r="D30">
         <v>5.0826044753193855E-4</v>
@@ -1050,18 +1418,18 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>48</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
+      <c r="C31">
+        <v>250</v>
       </c>
       <c r="D31">
         <v>0.1150771808326395</v>
@@ -1075,13 +1443,13 @@
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
+      <c r="C32">
+        <v>250</v>
       </c>
       <c r="D32">
         <v>8.8433408604198904E-2</v>
@@ -1094,34 +1462,34 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <v>7.4583711111972702E-3</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>141</v>
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2">
+        <v>125</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9.9803823777639376E-4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2">
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
+      <c r="C34">
+        <v>250</v>
       </c>
       <c r="D34">
         <v>8.7340808776591075E-2</v>
@@ -1135,13 +1503,13 @@
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
-        <v>14</v>
+      <c r="C35">
+        <v>250</v>
       </c>
       <c r="D35">
         <v>0.16425137303108911</v>
@@ -1155,13 +1523,13 @@
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>14</v>
+      <c r="C36">
+        <v>250</v>
       </c>
       <c r="D36">
         <v>8.9531078934669522E-2</v>
@@ -1170,18 +1538,18 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
-        <v>14</v>
+      <c r="C37">
+        <v>250</v>
       </c>
       <c r="D37">
         <v>6.2548090229219186E-2</v>
@@ -1195,13 +1563,13 @@
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
+      <c r="C38">
+        <v>500</v>
       </c>
       <c r="D38">
         <v>0.2240711326882151</v>
@@ -1213,35 +1581,35 @@
         <v>716.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>9.9803823777639376E-4</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>105</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2">
+        <v>250</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.5315516704691781E-5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2">
+        <v>38.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
-        <v>15</v>
+      <c r="C40">
+        <v>500</v>
       </c>
       <c r="D40">
         <v>0.22184113839431119</v>
@@ -1255,13 +1623,13 @@
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
-        <v>15</v>
+      <c r="C41">
+        <v>500</v>
       </c>
       <c r="D41">
         <v>0.19156533181505911</v>
@@ -1275,13 +1643,13 @@
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
-      <c r="C42" t="s">
-        <v>15</v>
+      <c r="C42">
+        <v>500</v>
       </c>
       <c r="D42">
         <v>5.9881205670535573E-3</v>
@@ -1290,18 +1658,18 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
-      <c r="C43" t="s">
-        <v>15</v>
+      <c r="C43">
+        <v>500</v>
       </c>
       <c r="D43">
         <v>0.32348121709712058</v>
@@ -1315,13 +1683,13 @@
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>48</v>
       </c>
-      <c r="C44" t="s">
-        <v>15</v>
+      <c r="C44">
+        <v>500</v>
       </c>
       <c r="D44">
         <v>0.2109055788429568</v>
@@ -1333,35 +1701,35 @@
         <v>719.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45">
-        <v>4.4193044114799072E-3</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>131</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2">
+        <v>500</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9.9803823777639376E-4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>48</v>
       </c>
-      <c r="C46" t="s">
-        <v>15</v>
+      <c r="C46">
+        <v>500</v>
       </c>
       <c r="D46">
         <v>0.2087707188967412</v>
@@ -1375,13 +1743,13 @@
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47">
         <v>48</v>
       </c>
-      <c r="C47" t="s">
-        <v>15</v>
+      <c r="C47">
+        <v>500</v>
       </c>
       <c r="D47">
         <v>8.471606522217226E-2</v>
@@ -1395,13 +1763,13 @@
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
-        <v>15</v>
+      <c r="C48">
+        <v>500</v>
       </c>
       <c r="D48">
         <v>8.9531078934669522E-2</v>
@@ -1410,18 +1778,18 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
-        <v>15</v>
+      <c r="C49">
+        <v>500</v>
       </c>
       <c r="D49">
         <v>0.49164475706932781</v>
@@ -1435,13 +1803,13 @@
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
-        <v>15</v>
+      <c r="C50">
+        <v>500</v>
       </c>
       <c r="D50">
         <v>0.17859542880380511</v>
@@ -1454,34 +1822,34 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>4.2494688400765901E-3</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>120.5</v>
+      <c r="A51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
+        <v>750</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.9363687871899499E-4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2">
+        <v>79.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" t="s">
-        <v>15</v>
+      <c r="C52">
+        <v>500</v>
       </c>
       <c r="D52">
         <v>0.17670630260657591</v>
@@ -1495,13 +1863,13 @@
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
-        <v>15</v>
+      <c r="C53">
+        <v>500</v>
       </c>
       <c r="D53">
         <v>0.1982279348949714</v>
@@ -1515,13 +1883,13 @@
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
-        <v>15</v>
+      <c r="C54">
+        <v>500</v>
       </c>
       <c r="D54">
         <v>1.6673847800120711E-2</v>
@@ -1530,18 +1898,18 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
-        <v>15</v>
+      <c r="C55">
+        <v>500</v>
       </c>
       <c r="D55">
         <v>0.1990538616201544</v>
@@ -1555,13 +1923,13 @@
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56">
         <v>18</v>
       </c>
-      <c r="C56" t="s">
-        <v>16</v>
+      <c r="C56">
+        <v>750</v>
       </c>
       <c r="D56">
         <v>0.15691013249251939</v>
@@ -1573,35 +1941,35 @@
         <v>733.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57">
-        <v>1.9363687871899499E-4</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>79.5</v>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>9.121759730260269E-3</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
-      <c r="C58" t="s">
-        <v>16</v>
+      <c r="C58">
+        <v>750</v>
       </c>
       <c r="D58">
         <v>0.15519645597537049</v>
@@ -1615,13 +1983,13 @@
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>18</v>
       </c>
-      <c r="C59" t="s">
-        <v>16</v>
+      <c r="C59">
+        <v>750</v>
       </c>
       <c r="D59">
         <v>0.10253338437062461</v>
@@ -1635,13 +2003,13 @@
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>18</v>
       </c>
-      <c r="C60" t="s">
-        <v>16</v>
+      <c r="C60">
+        <v>750</v>
       </c>
       <c r="D60">
         <v>1.878225477412343E-3</v>
@@ -1650,18 +2018,18 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>18</v>
       </c>
-      <c r="C61" t="s">
-        <v>16</v>
+      <c r="C61">
+        <v>750</v>
       </c>
       <c r="D61">
         <v>0.49164475706932781</v>
@@ -1675,13 +2043,13 @@
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>48</v>
       </c>
-      <c r="C62" t="s">
-        <v>16</v>
+      <c r="C62">
+        <v>750</v>
       </c>
       <c r="D62">
         <v>0.15861260934684429</v>
@@ -1693,35 +2061,35 @@
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63">
-        <v>48</v>
-      </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63">
-        <v>6.2277568575169221E-3</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>137.5</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>48</v>
+      </c>
+      <c r="C63" s="2">
+        <v>125</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2.6923617795732552E-6</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>48</v>
       </c>
-      <c r="C64" t="s">
-        <v>16</v>
+      <c r="C64">
+        <v>750</v>
       </c>
       <c r="D64">
         <v>0.15688473076689829</v>
@@ -1735,13 +2103,13 @@
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>48</v>
       </c>
-      <c r="C65" t="s">
-        <v>16</v>
+      <c r="C65">
+        <v>750</v>
       </c>
       <c r="D65">
         <v>0.2561718410892162</v>
@@ -1755,13 +2123,13 @@
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>48</v>
       </c>
-      <c r="C66" t="s">
-        <v>16</v>
+      <c r="C66">
+        <v>750</v>
       </c>
       <c r="D66">
         <v>4.0959591511636993E-2</v>
@@ -1770,18 +2138,18 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>48</v>
       </c>
-      <c r="C67" t="s">
-        <v>16</v>
+      <c r="C67">
+        <v>750</v>
       </c>
       <c r="D67">
         <v>0.1990538616201544</v>
@@ -1795,13 +2163,13 @@
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
-      <c r="C68" t="s">
-        <v>16</v>
+      <c r="C68">
+        <v>750</v>
       </c>
       <c r="D68">
         <v>9.764926149409954E-2</v>
@@ -1814,34 +2182,34 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69">
-        <v>4.2273330406037951E-5</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>58</v>
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>48</v>
+      </c>
+      <c r="C69" s="2">
+        <v>250</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3.9222527127924723E-5</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="2">
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
-      <c r="C70" t="s">
-        <v>16</v>
+      <c r="C70">
+        <v>750</v>
       </c>
       <c r="D70">
         <v>9.64662650846905E-2</v>
@@ -1855,13 +2223,13 @@
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
-        <v>16</v>
+      <c r="C71">
+        <v>750</v>
       </c>
       <c r="D71">
         <v>7.1252004210513684E-2</v>
@@ -1875,13 +2243,13 @@
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
-      <c r="C72" t="s">
-        <v>16</v>
+      <c r="C72">
+        <v>750</v>
       </c>
       <c r="D72">
         <v>5.0826044753193855E-4</v>
@@ -1890,18 +2258,18 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73" t="s">
-        <v>16</v>
+      <c r="C73">
+        <v>750</v>
       </c>
       <c r="D73">
         <v>0.1150771808326395</v>
@@ -1915,13 +2283,13 @@
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <v>18</v>
       </c>
-      <c r="C74" t="s">
-        <v>17</v>
+      <c r="C74">
+        <v>1000</v>
       </c>
       <c r="D74">
         <v>0.27198626574099333</v>
@@ -1933,35 +2301,35 @@
         <v>706.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75">
-        <v>18</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75">
-        <v>9.121759730260269E-3</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>145</v>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>48</v>
+      </c>
+      <c r="C75" s="2">
+        <v>500</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4.4193044114799072E-3</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="2">
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
-      <c r="C76" t="s">
-        <v>17</v>
+      <c r="C76">
+        <v>1000</v>
       </c>
       <c r="D76">
         <v>0.2694308387355272</v>
@@ -1975,13 +2343,13 @@
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77">
         <v>18</v>
       </c>
-      <c r="C77" t="s">
-        <v>17</v>
+      <c r="C77">
+        <v>1000</v>
       </c>
       <c r="D77">
         <v>0.56296455234036569</v>
@@ -1995,13 +2363,13 @@
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>18</v>
       </c>
-      <c r="C78" t="s">
-        <v>17</v>
+      <c r="C78">
+        <v>1000</v>
       </c>
       <c r="D78">
         <v>1.878225477412343E-3</v>
@@ -2010,18 +2378,18 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B79">
         <v>18</v>
       </c>
-      <c r="C79" t="s">
-        <v>17</v>
+      <c r="C79">
+        <v>1000</v>
       </c>
       <c r="D79">
         <v>0.49164475706932781</v>
@@ -2035,13 +2403,13 @@
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B80">
         <v>48</v>
       </c>
-      <c r="C80" t="s">
-        <v>17</v>
+      <c r="C80">
+        <v>1000</v>
       </c>
       <c r="D80">
         <v>0.24964266585170611</v>
@@ -2053,35 +2421,35 @@
         <v>711</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81">
-        <v>48</v>
-      </c>
-      <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81">
-        <v>7.5571489412986029E-3</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>131</v>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>48</v>
+      </c>
+      <c r="C81" s="2">
+        <v>750</v>
+      </c>
+      <c r="D81" s="2">
+        <v>6.2277568575169221E-3</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="2">
+        <v>137.5</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82">
         <v>48</v>
       </c>
-      <c r="C82" t="s">
-        <v>17</v>
+      <c r="C82">
+        <v>1000</v>
       </c>
       <c r="D82">
         <v>0.24723505790605371</v>
@@ -2095,13 +2463,13 @@
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>48</v>
       </c>
-      <c r="C83" t="s">
-        <v>17</v>
+      <c r="C83">
+        <v>1000</v>
       </c>
       <c r="D83">
         <v>0.20696211960587621</v>
@@ -2115,13 +2483,13 @@
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>48</v>
       </c>
-      <c r="C84" t="s">
-        <v>17</v>
+      <c r="C84">
+        <v>1000</v>
       </c>
       <c r="D84">
         <v>8.9531078934669522E-2</v>
@@ -2130,18 +2498,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <v>48</v>
       </c>
-      <c r="C85" t="s">
-        <v>17</v>
+      <c r="C85">
+        <v>1000</v>
       </c>
       <c r="D85">
         <v>0.6901844796763249</v>
@@ -2155,13 +2523,13 @@
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
-      <c r="C86" t="s">
-        <v>17</v>
+      <c r="C86">
+        <v>1000</v>
       </c>
       <c r="D86">
         <v>0.51433898929487687</v>
@@ -2174,34 +2542,34 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87">
-        <v>6.1864916427924507E-2</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>176</v>
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>48</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D87" s="2">
+        <v>7.5571489412986029E-3</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="2">
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88" t="s">
-        <v>17</v>
+      <c r="C88">
+        <v>1000</v>
       </c>
       <c r="D88">
         <v>0.51055667751738842</v>
@@ -2215,13 +2583,13 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
-        <v>17</v>
+      <c r="C89">
+        <v>1000</v>
       </c>
       <c r="D89">
         <v>0.30635119139230388</v>
@@ -2235,13 +2603,13 @@
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
-      <c r="C90" t="s">
-        <v>17</v>
+      <c r="C90">
+        <v>1000</v>
       </c>
       <c r="D90">
         <v>0.31050465907901542</v>
@@ -2250,18 +2618,18 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
-      <c r="C91" t="s">
-        <v>17</v>
+      <c r="C91">
+        <v>1000</v>
       </c>
       <c r="D91">
         <v>0.87449450614031454</v>
@@ -2280,12 +2648,384 @@
         <filter val="Wilcoxon signed-rank test"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F87">
+    <sortCondition ref="B2:B87"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FA88ED-5E0A-4800-ABEF-E4A9EA69C1BF}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.8733526831492782E-2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
+        <v>250</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7.4583711111972702E-3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
+        <v>500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4.2494688400765901E-3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
+        <v>750</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.2273330406037951E-5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>6.1864916427924507E-2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>125</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.9803823777639376E-4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7">
+        <v>250</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.5315516704691781E-5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
+        <v>500</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.9803823777639376E-4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7">
+        <v>750</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.9363687871899499E-4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9.121759730260269E-3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>125</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.6923617795732552E-6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
+        <v>250</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.9222527127924723E-5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
+        <v>500</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.4193044114799072E-3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
+        <v>750</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.2277568575169221E-3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="12">
+        <v>7.5571489412986029E-3</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="13">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E015B512-DC54-4BB0-8CC6-F34F486A8572}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21">
+        <v>3.01169590643278</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.55587002964926902</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11.0791788856304</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.5688417858543301E-2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.9466666666666</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.09157033780661E-3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>